--- a/delivery13.xlsx
+++ b/delivery13.xlsx
@@ -75,10 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -135,6 +136,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -446,7 +450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -471,7 +475,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6">
+      <c r="A1" s="7">
         <v>56</v>
       </c>
       <c r="B1" t="s">
@@ -533,6 +537,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
